--- a/Coverage_Schedule.xlsx
+++ b/Coverage_Schedule.xlsx
@@ -400,7 +400,7 @@
     <t>Ryce, Beth</t>
   </si>
   <si>
-    <t>Riggle, Jessica-Res</t>
+    <t>Riggle, Jessica - Res</t>
   </si>
   <si>
     <t>Creehan, Kasey</t>
@@ -426,7 +426,7 @@
     <t>215-1</t>
   </si>
   <si>
-    <t>Johnson, S-Res</t>
+    <t>Johnson, Samantha - Res</t>
   </si>
   <si>
     <t>Reiher, Bradley</t>
@@ -620,9 +620,6 @@
     <t>1.3.5/6,8/9,10,11</t>
   </si>
   <si>
-    <t>1,2,4,5/6,7/8,12</t>
-  </si>
-  <si>
     <t>Gym/206</t>
   </si>
   <si>
@@ -765,6 +762,9 @@
   </si>
   <si>
     <t>1,4,5/6,8/9,10,11</t>
+  </si>
+  <si>
+    <t>Rosenberg (Wehr, Hannah)</t>
   </si>
   <si>
     <t>2,3,4,5/6,11</t>
@@ -785,6 +785,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -809,12 +815,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFffffff"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1117,7 +1117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1137,8 +1137,8 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1176,10 +1176,10 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
@@ -1221,7 +1221,7 @@
     <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
@@ -1242,37 +1242,34 @@
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="5" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="5" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="4" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="5" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -1281,10 +1278,10 @@
     <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -1308,8 +1305,8 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1628,50 +1625,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="65" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="65" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="66" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="66" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="66" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="66" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="66" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="66" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="66" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="66" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="66" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="66" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="66" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="65" width="6.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="65" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="67" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="67" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="65" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="66" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="65" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="65" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="65" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="65" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="65" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="65" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="65" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="65" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="65" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="65" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="66" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="65" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="65" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="65" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="65" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="65" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="65" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="65" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="65" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="65" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="65" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="65" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="64" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="64" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="65" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="65" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="65" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="65" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="65" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="65" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="65" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="65" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="65" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="65" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="65" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="64" width="6.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="64" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="66" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="66" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="64" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="65" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="64" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="64" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="64" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="64" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="64" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="64" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="64" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="64" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="64" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="64" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="65" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="64" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="64" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="64" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="64" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="64" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="64" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="64" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="64" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="64" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="64" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="64" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1788,7 +1785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
@@ -1899,7 +1896,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33.75">
       <c r="A3" s="5" t="s">
         <v>59</v>
       </c>
@@ -2010,7 +2007,7 @@
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="33.75">
       <c r="A4" s="5" t="s">
         <v>76</v>
       </c>
@@ -2224,7 +2221,7 @@
         <v>102</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33.75">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
@@ -2329,7 +2326,7 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33.75">
       <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
@@ -2426,7 +2423,7 @@
       </c>
       <c r="AO7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33.75">
       <c r="A8" s="5" t="s">
         <v>122</v>
       </c>
@@ -2521,7 +2518,7 @@
       </c>
       <c r="AO8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33.75">
       <c r="A9" s="5" t="s">
         <v>97</v>
       </c>
@@ -2612,7 +2609,7 @@
       </c>
       <c r="AO9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33.75">
       <c r="A10" s="5" t="s">
         <v>127</v>
       </c>
@@ -2697,7 +2694,7 @@
         <v>140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33.75">
       <c r="A11" s="5" t="s">
         <v>81</v>
       </c>
@@ -2769,7 +2766,7 @@
       <c r="Y11" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="Z11" s="35" t="s">
+      <c r="Z11" s="8" t="s">
         <v>149</v>
       </c>
       <c r="AA11" s="8" t="s">
@@ -2800,7 +2797,7 @@
         <v>153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -2881,7 +2878,7 @@
         <v>156</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33.75">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -2962,7 +2959,7 @@
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33.75">
       <c r="A14" s="5" t="s">
         <v>72</v>
       </c>
@@ -3039,7 +3036,7 @@
         <v>164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5" t="s">
         <v>83</v>
       </c>
@@ -3116,7 +3113,7 @@
         <v>166</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="33.75">
       <c r="A16" s="5" t="s">
         <v>107</v>
       </c>
@@ -3193,7 +3190,7 @@
         <v>170</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="33.75">
       <c r="A17" s="31" t="s">
         <v>171</v>
       </c>
@@ -3224,7 +3221,7 @@
       <c r="J17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="46" t="s">
+      <c r="K17" s="23" t="s">
         <v>39</v>
       </c>
       <c r="L17" s="24" t="s">
@@ -3299,7 +3296,7 @@
       <c r="J18" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="47" t="s">
+      <c r="K18" s="46" t="s">
         <v>62</v>
       </c>
       <c r="L18" s="14" t="s">
@@ -3362,7 +3359,7 @@
       <c r="F19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="47" t="s">
         <v>93</v>
       </c>
       <c r="H19" s="33" t="s">
@@ -3512,10 +3509,10 @@
       <c r="F21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="49" t="s">
         <v>180</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -3737,7 +3734,7 @@
       <c r="F24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="50" t="s">
         <v>137</v>
       </c>
       <c r="H24" s="42" t="s">
@@ -3809,10 +3806,10 @@
       <c r="E25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="G25" s="48" t="s">
+      <c r="G25" s="47" t="s">
         <v>39</v>
       </c>
       <c r="H25" s="33" t="s">
@@ -4049,7 +4046,7 @@
       <c r="J28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K28" s="53" t="s">
+      <c r="K28" s="52" t="s">
         <v>40</v>
       </c>
       <c r="L28" s="14" t="s">
@@ -4187,7 +4184,7 @@
       <c r="F30" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="48" t="s">
+      <c r="G30" s="47" t="s">
         <v>93</v>
       </c>
       <c r="H30" s="33" t="s">
@@ -4435,13 +4432,13 @@
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="P33" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="P33" s="6">
-        <v>11</v>
-      </c>
-      <c r="Q33" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="R33" s="4"/>
       <c r="S33" s="7"/>
@@ -4487,7 +4484,7 @@
       <c r="F34" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="48" t="s">
+      <c r="G34" s="47" t="s">
         <v>93</v>
       </c>
       <c r="H34" s="33" t="s">
@@ -4510,7 +4507,7 @@
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P34" s="6">
         <v>10</v>
@@ -4572,7 +4569,7 @@
       <c r="J35" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="54" t="s">
+      <c r="K35" s="53" t="s">
         <v>13</v>
       </c>
       <c r="L35" s="14" t="s">
@@ -4583,10 +4580,10 @@
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="P35" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="Q35" s="6">
         <v>203</v>
@@ -4658,7 +4655,7 @@
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P36" s="6">
         <v>4</v>
@@ -4693,7 +4690,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>60</v>
@@ -4733,7 +4730,7 @@
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P37" s="6">
         <v>11</v>
@@ -4808,7 +4805,7 @@
       </c>
       <c r="N38" s="4"/>
       <c r="O38" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P38" s="6">
         <v>2</v>
@@ -4843,10 +4840,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>208</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -4930,7 +4927,7 @@
       </c>
       <c r="N40" s="4"/>
       <c r="O40" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P40" s="6">
         <v>11</v>
@@ -4971,7 +4968,7 @@
         <v>123</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>39</v>
@@ -4982,7 +4979,7 @@
       <c r="F41" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="48" t="s">
+      <c r="G41" s="47" t="s">
         <v>93</v>
       </c>
       <c r="H41" s="33" t="s">
@@ -5001,11 +4998,11 @@
         <v>39</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N41" s="4"/>
       <c r="O41" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P41" s="6">
         <v>4</v>
@@ -5040,7 +5037,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>123</v>
@@ -5080,7 +5077,7 @@
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P42" s="6">
         <v>3</v>
@@ -5155,7 +5152,7 @@
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P43" s="6">
         <v>10</v>
@@ -5236,7 +5233,7 @@
         <v>10</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R44" s="4"/>
       <c r="S44" s="7"/>
@@ -5305,13 +5302,13 @@
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P45" s="6" t="s">
         <v>163</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R45" s="4"/>
       <c r="S45" s="7"/>
@@ -5380,7 +5377,7 @@
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P46" s="6">
         <v>10</v>
@@ -5432,30 +5429,30 @@
       <c r="F47" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G47" s="48" t="s">
-        <v>219</v>
+      <c r="G47" s="47" t="s">
+        <v>218</v>
       </c>
       <c r="H47" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I47" s="22" t="s">
         <v>41</v>
       </c>
       <c r="J47" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="K47" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="L47" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="K47" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="L47" s="24" t="s">
+      <c r="M47" s="18" t="s">
         <v>221</v>
-      </c>
-      <c r="M47" s="18" t="s">
-        <v>222</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P47" s="6">
         <v>1</v>
@@ -5530,13 +5527,13 @@
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P48" s="6">
         <v>3</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R48" s="4"/>
       <c r="S48" s="7"/>
@@ -5598,14 +5595,14 @@
         <v>39</v>
       </c>
       <c r="L49" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M49" s="29" t="s">
         <v>13</v>
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P49" s="6">
         <v>11</v>
@@ -5646,22 +5643,22 @@
         <v>176</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D50" s="21" t="s">
         <v>62</v>
       </c>
       <c r="E50" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="F50" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="41" t="s">
-        <v>228</v>
-      </c>
       <c r="H50" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I50" s="22" t="s">
         <v>41</v>
@@ -5672,15 +5669,15 @@
       <c r="K50" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="L50" s="55" t="s">
+      <c r="L50" s="54" t="s">
         <v>137</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N50" s="4"/>
       <c r="O50" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P50" s="6">
         <v>4</v>
@@ -5736,10 +5733,10 @@
         <v>41</v>
       </c>
       <c r="H51" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I51" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>39</v>
@@ -5747,7 +5744,7 @@
       <c r="K51" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="L51" s="56" t="s">
+      <c r="L51" s="55" t="s">
         <v>62</v>
       </c>
       <c r="M51" s="8" t="s">
@@ -5755,7 +5752,7 @@
       </c>
       <c r="N51" s="4"/>
       <c r="O51" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P51" s="6">
         <v>4</v>
@@ -5817,7 +5814,7 @@
       <c r="J52" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K52" s="54" t="s">
+      <c r="K52" s="53" t="s">
         <v>13</v>
       </c>
       <c r="L52" s="14" t="s">
@@ -5828,10 +5825,10 @@
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="P52" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="P52" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="Q52" s="6">
         <v>209</v>
@@ -5903,7 +5900,7 @@
       </c>
       <c r="N53" s="4"/>
       <c r="O53" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P53" s="6">
         <v>4</v>
@@ -5944,37 +5941,37 @@
         <v>103</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G54" s="27" t="s">
         <v>41</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J54" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K54" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L54" s="36" t="s">
         <v>13</v>
       </c>
       <c r="M54" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N54" s="4"/>
       <c r="O54" s="5" t="s">
@@ -6022,7 +6019,7 @@
         <v>13</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>39</v>
@@ -6040,20 +6037,20 @@
         <v>41</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K55" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L55" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M55" s="21" t="s">
         <v>62</v>
       </c>
       <c r="N55" s="4"/>
       <c r="O55" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P55" s="6">
         <v>1</v>
@@ -6106,7 +6103,7 @@
         <v>39</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H56" s="21" t="s">
         <v>62</v>
@@ -6128,7 +6125,7 @@
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P56" s="6">
         <v>11</v>
@@ -6195,7 +6192,7 @@
       <c r="K57" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="L57" s="56" t="s">
+      <c r="L57" s="55" t="s">
         <v>62</v>
       </c>
       <c r="M57" s="8" t="s">
@@ -6203,7 +6200,7 @@
       </c>
       <c r="N57" s="4"/>
       <c r="O57" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P57" s="6">
         <v>4</v>
@@ -6322,19 +6319,19 @@
         <v>39</v>
       </c>
       <c r="D59" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="E59" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G59" s="43" t="s">
-        <v>238</v>
-      </c>
       <c r="H59" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I59" s="33" t="s">
         <v>93</v>
@@ -6356,10 +6353,10 @@
         <v>115</v>
       </c>
       <c r="P59" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q59" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="Q59" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="R59" s="4"/>
       <c r="S59" s="7"/>
@@ -6388,7 +6385,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>60</v>
@@ -6405,7 +6402,7 @@
       <c r="F60" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="48" t="s">
+      <c r="G60" s="47" t="s">
         <v>93</v>
       </c>
       <c r="H60" s="33" t="s">
@@ -6463,7 +6460,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>179</v>
@@ -6509,7 +6506,7 @@
         <v>116</v>
       </c>
       <c r="Q61" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R61" s="4"/>
       <c r="S61" s="7"/>
@@ -6578,7 +6575,7 @@
       </c>
       <c r="N62" s="4"/>
       <c r="O62" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P62" s="6">
         <v>4</v>
@@ -6653,7 +6650,7 @@
       </c>
       <c r="N63" s="4"/>
       <c r="O63" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P63" s="6">
         <v>2</v>
@@ -6688,7 +6685,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="5" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>60</v>
@@ -6705,7 +6702,7 @@
       <c r="F64" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G64" s="48" t="s">
+      <c r="G64" s="47" t="s">
         <v>41</v>
       </c>
       <c r="H64" s="8" t="s">
@@ -6772,7 +6769,7 @@
         <v>39</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>39</v>
@@ -6780,20 +6777,20 @@
       <c r="F65" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G65" s="57" t="s">
+      <c r="G65" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="H65" s="58" t="s">
+      <c r="H65" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="I65" s="59" t="s">
+      <c r="I65" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="J65" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="K65" s="61" t="s">
-        <v>227</v>
+      <c r="J65" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="K65" s="60" t="s">
+        <v>226</v>
       </c>
       <c r="L65" s="14" t="s">
         <v>39</v>
@@ -6802,13 +6799,13 @@
         <v>13</v>
       </c>
       <c r="N65" s="1"/>
-      <c r="O65" s="62" t="s">
+      <c r="O65" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="P65" s="63">
+      <c r="P65" s="62">
         <v>11</v>
       </c>
-      <c r="Q65" s="63">
+      <c r="Q65" s="62">
         <v>223</v>
       </c>
       <c r="R65" s="4"/>
@@ -6852,8 +6849,8 @@
       <c r="M66" s="7"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
-      <c r="P66" s="64"/>
-      <c r="Q66" s="64"/>
+      <c r="P66" s="63"/>
+      <c r="Q66" s="63"/>
       <c r="R66" s="4"/>
       <c r="S66" s="7"/>
       <c r="T66" s="4"/>
@@ -6895,8 +6892,8 @@
       <c r="M67" s="7"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
-      <c r="P67" s="64"/>
-      <c r="Q67" s="64"/>
+      <c r="P67" s="63"/>
+      <c r="Q67" s="63"/>
       <c r="R67" s="4"/>
       <c r="S67" s="7"/>
       <c r="T67" s="4"/>
@@ -6938,8 +6935,8 @@
       <c r="M68" s="7"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
-      <c r="P68" s="64"/>
-      <c r="Q68" s="64"/>
+      <c r="P68" s="63"/>
+      <c r="Q68" s="63"/>
       <c r="R68" s="4"/>
       <c r="S68" s="7"/>
       <c r="T68" s="4"/>
@@ -6981,8 +6978,8 @@
       <c r="M69" s="7"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
-      <c r="P69" s="64"/>
-      <c r="Q69" s="64"/>
+      <c r="P69" s="63"/>
+      <c r="Q69" s="63"/>
       <c r="R69" s="4"/>
       <c r="S69" s="7"/>
       <c r="T69" s="4"/>
@@ -7024,8 +7021,8 @@
       <c r="M70" s="7"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
-      <c r="P70" s="64"/>
-      <c r="Q70" s="64"/>
+      <c r="P70" s="63"/>
+      <c r="Q70" s="63"/>
       <c r="R70" s="4"/>
       <c r="S70" s="7"/>
       <c r="T70" s="4"/>
